--- a/Mental Care Test Cases.xlsx
+++ b/Mental Care Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECommerce\Mental Care CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B062AA1-E7D8-42B9-B743-E1BAD31E0966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69A280-E03C-49E1-A248-A147527F2F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -186,9 +186,6 @@
   <si>
     <t>Book an 
 Appointment</t>
-  </si>
-  <si>
-    <t>1. Choose a date and time. 2. Click "Book Now" button</t>
   </si>
   <si>
     <t>NA</t>
@@ -410,6 +407,82 @@
 3. View the list of blogs 
 4. Select the blog to delete 
 5. Click "Delete" 6. Confirm deletion</t>
+  </si>
+  <si>
+    <t>TC_x0002_019</t>
+  </si>
+  <si>
+    <t>Successfully Logout</t>
+  </si>
+  <si>
+    <t>1.The user should not already be registered with the same email or username in the system</t>
+  </si>
+  <si>
+    <t>Pre Conditions</t>
+  </si>
+  <si>
+    <t>1.The user must already be registered in the system with verified credentials.
+2.The login page should be accessible.</t>
+  </si>
+  <si>
+    <t>1.The login page should be accessible.</t>
+  </si>
+  <si>
+    <t>1.The user should be on the search psychologist page.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1. Choose a date and time. 
+2. Click "Book Now" button</t>
+  </si>
+  <si>
+    <t>1.The user must be logged into the Mental Care platform.
+2.The user should be on the appointment booking page.
+3.The user should have access to a list of available psychologists.
+4.The selected psychologist must have open appointment slots.</t>
+  </si>
+  <si>
+    <t>1.The user must be logged into the Mental Care platform with  psychologist privileges.</t>
+  </si>
+  <si>
+    <t>1.The user must be logged into the Mental Care platform
+2.The user must have booked an appointment previously with the psychologist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The user must be logged into the Mental Care platform.
+2.The user must have booked an appointment 3.previously with the psychologist.
+4.The user should have sent at least one message to the psychologist.
+</t>
+  </si>
+  <si>
+    <t>1.At least one blog post should be published and available for reading</t>
+  </si>
+  <si>
+    <t>1.Must be login as psychologist</t>
+  </si>
+  <si>
+    <t>1.Must be login as Admin</t>
+  </si>
+  <si>
+    <t>1.Must have previous appointment.</t>
+  </si>
+  <si>
+    <t>1.The psychologist must be logged into the Mental Care platform.
+2.The psychologist should have at least one blog post that they authored.</t>
+  </si>
+  <si>
+    <t>The user is redirected to the login page</t>
+  </si>
+  <si>
+    <t>The user was directed to the login page</t>
+  </si>
+  <si>
+    <t>1.Login as a user
+2.Click on the "Logout" button
+3.Wait for the logout process to complete.
+4.Check that the user is taken to the login page</t>
   </si>
 </sst>
 </file>
@@ -479,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,9 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -801,24 +871,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="38" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="40.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="40.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -826,25 +897,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -852,406 +926,486 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="H11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="G19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
